--- a/data/Ass4.xlsx
+++ b/data/Ass4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\OneDrive - University of Exeter\DataScience-2025\Individual Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CA6BA0-776F-4AC7-AEB0-C8449DB66504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D262FA-40D5-414B-98FF-31966A2237FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="2730" windowWidth="18390" windowHeight="10065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1849,12 +1849,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2159,8 +2158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2735,7 +2734,7 @@
       <c r="B8" t="s">
         <v>583</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>584</v>
       </c>
       <c r="D8" t="s">
